--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>416814.9810361752</v>
+        <v>414114.4435673506</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.9338501414986</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>239.8079481415046</v>
+        <v>191.4298910353889</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>18.20035435295501</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>143.5328449607623</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>29.91333985062665</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>43.51529703307429</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>210.2445784489402</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>48.82686018684534</v>
+        <v>12.32572783638013</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.9865017432183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>141.1814615316175</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.0639896953817</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>143.3269518847671</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7506765600919</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.85195735900768</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175707</v>
+        <v>34.555410331757</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.261993899359069</v>
       </c>
       <c r="S6" t="n">
-        <v>142.0968555152071</v>
+        <v>142.096855515207</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.7444632813737</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8365899360328</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>63.306531596291</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>33.30835291341945</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.2918344467883</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.2496683371439</v>
       </c>
       <c r="S7" t="n">
         <v>200.7444959205693</v>
       </c>
       <c r="T7" t="n">
-        <v>222.2398575583236</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2461902262361</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>148.1635040144852</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>278.9324364683438</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>159.2508239713361</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>47.82814756577479</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>172.9986447578699</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>90.87307469723456</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615222</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9590024596869</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108068</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812554</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530798</v>
+        <v>10.48847705530801</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.6502311075614</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278154</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>159.2652486129182</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905251</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417104</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,13 +1658,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>13.79222725775281</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833828</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428791</v>
       </c>
       <c r="E19" t="n">
-        <v>116.2836593751502</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011519</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983455</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>66.25628701154669</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.445727774097065</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419834517</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>179.0601483711167</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428223</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>80.67842139643651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,13 +3503,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8253826161914759</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,10 +3743,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428172</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>643.3309862195505</v>
+        <v>523.6380156196614</v>
       </c>
       <c r="C2" t="n">
-        <v>401.100735571566</v>
+        <v>523.6380156196614</v>
       </c>
       <c r="D2" t="n">
-        <v>401.100735571566</v>
+        <v>523.6380156196614</v>
       </c>
       <c r="E2" t="n">
-        <v>158.8704849235816</v>
+        <v>281.4077649716768</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9249841743781</v>
+        <v>274.4622642224734</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>261.4148864993049</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I2" t="n">
         <v>19.18463585132037</v>
@@ -4331,49 +4331,49 @@
         <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192959</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605488</v>
+        <v>262.3106962605492</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859562</v>
+        <v>449.0101090859565</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779381</v>
+        <v>643.3443219779385</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948974</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444234</v>
+        <v>924.2476725444236</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660183</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660184</v>
+        <v>717.001541918034</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660184</v>
+        <v>717.001541918034</v>
       </c>
       <c r="X2" t="n">
-        <v>717.0015419180339</v>
+        <v>523.6380156196614</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.0015419180339</v>
+        <v>523.6380156196614</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.7406968341433</v>
+        <v>164.1673075288581</v>
       </c>
       <c r="C3" t="n">
-        <v>327.3565005180271</v>
+        <v>164.1673075288581</v>
       </c>
       <c r="D3" t="n">
-        <v>178.4220908567759</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E3" t="n">
         <v>19.18463585132037</v>
@@ -4410,49 +4410,49 @@
         <v>19.18463585132037</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450197</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607135</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153181</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679825</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367429</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640416</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682051</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S3" t="n">
-        <v>788.6531038308399</v>
+        <v>809.7650034286532</v>
       </c>
       <c r="T3" t="n">
-        <v>788.6531038308399</v>
+        <v>809.7650034286532</v>
       </c>
       <c r="U3" t="n">
-        <v>788.6531038308399</v>
+        <v>809.7650034286532</v>
       </c>
       <c r="V3" t="n">
-        <v>553.5009955990972</v>
+        <v>574.6128951969106</v>
       </c>
       <c r="W3" t="n">
-        <v>553.5009955990972</v>
+        <v>332.3826445489261</v>
       </c>
       <c r="X3" t="n">
-        <v>553.5009955990972</v>
+        <v>332.3826445489261</v>
       </c>
       <c r="Y3" t="n">
-        <v>345.7406968341433</v>
+        <v>332.3826445489261</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.5945219362404</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C4" t="n">
-        <v>482.5945219362404</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D4" t="n">
-        <v>482.5945219362404</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E4" t="n">
-        <v>334.6814283538473</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F4" t="n">
-        <v>187.791480855937</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G4" t="n">
         <v>19.18463585132037</v>
@@ -4489,49 +4489,49 @@
         <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>63.76336012264372</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>248.596355023462</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>453.8659557426998</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>659.689320578804</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674028</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660184</v>
+        <v>955.8134731456587</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R4" t="n">
-        <v>929.0162977674056</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S4" t="n">
-        <v>929.0162977674056</v>
+        <v>751.7915078184238</v>
       </c>
       <c r="T4" t="n">
-        <v>703.3871010797706</v>
+        <v>526.1623111307888</v>
       </c>
       <c r="U4" t="n">
-        <v>703.3871010797706</v>
+        <v>482.207465642835</v>
       </c>
       <c r="V4" t="n">
-        <v>703.3871010797706</v>
+        <v>239.9772149948505</v>
       </c>
       <c r="W4" t="n">
-        <v>703.3871010797706</v>
+        <v>239.9772149948505</v>
       </c>
       <c r="X4" t="n">
-        <v>703.3871010797706</v>
+        <v>239.9772149948505</v>
       </c>
       <c r="Y4" t="n">
-        <v>482.5945219362404</v>
+        <v>19.18463585132037</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>878.9452244769213</v>
+        <v>934.9882743659259</v>
       </c>
       <c r="C5" t="n">
-        <v>878.9452244769213</v>
+        <v>934.9882743659259</v>
       </c>
       <c r="D5" t="n">
-        <v>878.9452244769213</v>
+        <v>576.7225757591755</v>
       </c>
       <c r="E5" t="n">
-        <v>493.1569718786771</v>
+        <v>364.3543146996399</v>
       </c>
       <c r="F5" t="n">
-        <v>82.17106708906954</v>
+        <v>357.4088139504364</v>
       </c>
       <c r="G5" t="n">
-        <v>32.85100629427626</v>
+        <v>344.9585838126787</v>
       </c>
       <c r="H5" t="n">
-        <v>32.85100629427626</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="I5" t="n">
-        <v>32.85100629427626</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="J5" t="n">
-        <v>103.75883628286</v>
+        <v>103.7588362828604</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230113</v>
+        <v>260.7698107230121</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340395</v>
+        <v>492.4575702340411</v>
       </c>
       <c r="M5" t="n">
-        <v>781.9242815861675</v>
+        <v>781.9242815861699</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.688675334935</v>
+        <v>1080.688675334938</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.46815914367</v>
+        <v>1349.468159143674</v>
       </c>
       <c r="P5" t="n">
-        <v>1544.364229282339</v>
+        <v>1544.364229282343</v>
       </c>
       <c r="Q5" t="n">
-        <v>1642.550314713813</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="R5" t="n">
-        <v>1642.550314713813</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="S5" t="n">
-        <v>1642.550314713813</v>
+        <v>1499.942777813193</v>
       </c>
       <c r="T5" t="n">
-        <v>1642.550314713813</v>
+        <v>1287.75692963604</v>
       </c>
       <c r="U5" t="n">
-        <v>1642.550314713813</v>
+        <v>1287.75692963604</v>
       </c>
       <c r="V5" t="n">
-        <v>1642.550314713813</v>
+        <v>1287.75692963604</v>
       </c>
       <c r="W5" t="n">
-        <v>1642.550314713813</v>
+        <v>934.9882743659259</v>
       </c>
       <c r="X5" t="n">
-        <v>1269.084556452733</v>
+        <v>934.9882743659259</v>
       </c>
       <c r="Y5" t="n">
-        <v>878.9452244769213</v>
+        <v>934.9882743659259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>594.016873495294</v>
+        <v>547.9805034345366</v>
       </c>
       <c r="C6" t="n">
-        <v>594.016873495294</v>
+        <v>373.5274741534095</v>
       </c>
       <c r="D6" t="n">
-        <v>594.016873495294</v>
+        <v>373.5274741534095</v>
       </c>
       <c r="E6" t="n">
-        <v>449.2421746217919</v>
+        <v>214.290019147954</v>
       </c>
       <c r="F6" t="n">
-        <v>302.7076166486769</v>
+        <v>67.75546117483897</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5857211334326</v>
+        <v>67.75546117483897</v>
       </c>
       <c r="H6" t="n">
-        <v>67.75546117483896</v>
+        <v>67.75546117483897</v>
       </c>
       <c r="I6" t="n">
-        <v>32.85100629427626</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="J6" t="n">
-        <v>107.0240749768989</v>
+        <v>56.26537711121837</v>
       </c>
       <c r="K6" t="n">
-        <v>225.1977888140907</v>
+        <v>174.4390909484105</v>
       </c>
       <c r="L6" t="n">
-        <v>430.4194717654309</v>
+        <v>379.6607738997511</v>
       </c>
       <c r="M6" t="n">
-        <v>689.2603642604718</v>
+        <v>638.5016663947924</v>
       </c>
       <c r="N6" t="n">
-        <v>969.3606498904901</v>
+        <v>1045.032869286462</v>
       </c>
       <c r="O6" t="n">
-        <v>1203.3778940107</v>
+        <v>1279.050113406673</v>
       </c>
       <c r="P6" t="n">
-        <v>1371.864297498572</v>
+        <v>1579.840812357067</v>
       </c>
       <c r="Q6" t="n">
-        <v>1642.550314713813</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="R6" t="n">
-        <v>1642.550314713813</v>
+        <v>1641.275573401333</v>
       </c>
       <c r="S6" t="n">
-        <v>1499.018137425725</v>
+        <v>1497.743396113245</v>
       </c>
       <c r="T6" t="n">
-        <v>1499.018137425725</v>
+        <v>1302.041918051252</v>
       </c>
       <c r="U6" t="n">
-        <v>1499.018137425725</v>
+        <v>1073.924150439097</v>
       </c>
       <c r="V6" t="n">
-        <v>1263.866029193982</v>
+        <v>1009.978158927692</v>
       </c>
       <c r="W6" t="n">
-        <v>1009.628672465781</v>
+        <v>755.7408021994904</v>
       </c>
       <c r="X6" t="n">
-        <v>801.7771722602479</v>
+        <v>755.7408021994904</v>
       </c>
       <c r="Y6" t="n">
-        <v>594.016873495294</v>
+        <v>547.9805034345366</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330.8652992304146</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="C7" t="n">
-        <v>330.8652992304146</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="D7" t="n">
-        <v>330.8652992304146</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="E7" t="n">
-        <v>182.9522056480215</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="F7" t="n">
-        <v>182.9522056480215</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="G7" t="n">
-        <v>149.3074047253756</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="H7" t="n">
-        <v>149.3074047253756</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="I7" t="n">
-        <v>32.85100629427626</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735808</v>
+        <v>33.89295411735827</v>
       </c>
       <c r="K7" t="n">
-        <v>165.4420311779934</v>
+        <v>165.4420311779938</v>
       </c>
       <c r="L7" t="n">
-        <v>389.3059936565134</v>
+        <v>389.305993656514</v>
       </c>
       <c r="M7" t="n">
-        <v>635.7282771409652</v>
+        <v>635.7282771409662</v>
       </c>
       <c r="N7" t="n">
-        <v>881.7258059268954</v>
+        <v>881.7258059268966</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.928044100018</v>
+        <v>1092.92804410002</v>
       </c>
       <c r="P7" t="n">
-        <v>1250.127362942351</v>
+        <v>1250.127362942352</v>
       </c>
       <c r="Q7" t="n">
-        <v>1275.528942871345</v>
+        <v>1275.528942871347</v>
       </c>
       <c r="R7" t="n">
-        <v>1275.528942871345</v>
+        <v>1157.094934449989</v>
       </c>
       <c r="S7" t="n">
-        <v>1072.75672476976</v>
+        <v>954.3227163484041</v>
       </c>
       <c r="T7" t="n">
-        <v>848.2720201653925</v>
+        <v>954.3227163484041</v>
       </c>
       <c r="U7" t="n">
-        <v>848.2720201653925</v>
+        <v>665.1851504633171</v>
       </c>
       <c r="V7" t="n">
-        <v>848.2720201653925</v>
+        <v>410.5006622574302</v>
       </c>
       <c r="W7" t="n">
-        <v>558.854850128432</v>
+        <v>260.8405571922937</v>
       </c>
       <c r="X7" t="n">
-        <v>330.8652992304146</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="Y7" t="n">
-        <v>330.8652992304146</v>
+        <v>32.85100629427634</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.210842731383</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>1102.248325790971</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>743.9826271842205</v>
+        <v>1020.544708344027</v>
       </c>
       <c r="E8" t="n">
-        <v>743.9826271842205</v>
+        <v>634.7564557457824</v>
       </c>
       <c r="F8" t="n">
-        <v>332.996722394613</v>
+        <v>223.7705509561749</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>212.1062047208678</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795504</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4863,40 +4863,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
         <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.8272960668249</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>473.8272960668249</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.721533453203</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V10" t="n">
-        <v>984.0370452473157</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W10" t="n">
-        <v>694.6198752103551</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>694.6198752103551</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.8272960668249</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1738.984271012039</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1738.984271012039</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1380.718572405288</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>994.9303198070438</v>
+        <v>785.0599995044464</v>
       </c>
       <c r="F11" t="n">
-        <v>583.9444150174363</v>
+        <v>785.0599995044464</v>
       </c>
       <c r="G11" t="n">
-        <v>169.3286504585818</v>
+        <v>370.4442349455921</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706881</v>
+        <v>304.4060796706884</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656942</v>
+        <v>695.1615405656944</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625327</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087828</v>
+        <v>1828.956123087827</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484038</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535291</v>
+        <v>3033.98851353529</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479989</v>
+        <v>3493.127967479988</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.749829464054</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796031</v>
+        <v>3876.883295796029</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345372</v>
+        <v>3876.883295796029</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926736</v>
+        <v>3672.904689377393</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926736</v>
+        <v>3419.410747498922</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.957856583166</v>
+        <v>3088.347860155351</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.189201313052</v>
+        <v>2735.579204885237</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.723443051972</v>
+        <v>2362.113446624157</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.58411107616</v>
+        <v>2284.676307713974</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
         <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870409</v>
+        <v>193.8410919870408</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046648</v>
+        <v>470.7769964046647</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626157</v>
+        <v>676.7125526339552</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749525</v>
+        <v>1184.669118590483</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450734</v>
+        <v>1720.478428291692</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2188.419472624214</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.8372409100798</v>
+        <v>227.6543053282563</v>
       </c>
       <c r="C13" t="n">
-        <v>680.8372409100798</v>
+        <v>227.6543053282563</v>
       </c>
       <c r="D13" t="n">
-        <v>530.7206014977442</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="E13" t="n">
-        <v>382.8075079153509</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="F13" t="n">
-        <v>382.8075079153509</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592058</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758643</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648139</v>
+        <v>364.1690246648136</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344801</v>
+        <v>710.5788654344797</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376938</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336945</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818662</v>
       </c>
       <c r="P13" t="n">
         <v>2042.94034901072</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742805</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2056.74346692558</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742806</v>
+        <v>1868.627619458876</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177246</v>
+        <v>1647.736286893316</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126697</v>
+        <v>1358.644593842768</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.69545492081</v>
+        <v>1103.960105636881</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.27828488385</v>
+        <v>814.5429355999202</v>
       </c>
       <c r="X13" t="n">
-        <v>1083.27828488385</v>
+        <v>586.5533847019028</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.4857057403195</v>
+        <v>365.7608055583727</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.4026036630052</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C16" t="n">
-        <v>776.4664207350984</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3497813227626</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E16" t="n">
-        <v>478.4366877403695</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F16" t="n">
-        <v>331.5467402424591</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630052</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="17">
@@ -5501,25 +5501,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>986.1256051221278</v>
+        <v>513.8536007400776</v>
       </c>
       <c r="C19" t="n">
-        <v>817.1894221942209</v>
+        <v>344.9174178121706</v>
       </c>
       <c r="D19" t="n">
-        <v>667.0727827818852</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832669</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510515</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611865</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.566649095897</v>
+        <v>916.2946447138474</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.774069952367</v>
+        <v>695.5020655703173</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400786</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121717</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>194.800778399836</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036841</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.91737983267</v>
       </c>
       <c r="S22" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740954</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535067</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138485</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703183</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452613</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>954.2476448606636</v>
+        <v>513.8536007400783</v>
       </c>
       <c r="C25" t="n">
-        <v>785.3114619327567</v>
+        <v>344.9174178121714</v>
       </c>
       <c r="D25" t="n">
-        <v>635.194822520421</v>
+        <v>194.8007783998357</v>
       </c>
       <c r="E25" t="n">
-        <v>487.2817289380278</v>
+        <v>194.8007783998357</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998357</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279809</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853368</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.91737983267</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.06254548757</v>
+        <v>1977.461080510515</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831768</v>
+        <v>1688.385853854713</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625881</v>
+        <v>1433.701365648826</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588921</v>
+        <v>1144.284195611865</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.896109690903</v>
+        <v>916.2946447138481</v>
       </c>
       <c r="Y25" t="n">
-        <v>1135.896109690903</v>
+        <v>695.502065570318</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,28 +6224,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614388</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>802.4715117229371</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121649</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908935</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.2179484367893</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876694</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597625</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474267</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474267</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474267</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>94.65038286230671</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>94.65038286230671</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.340348461439</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179091</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121646</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121646</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7597,7 +7597,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1688.385853854706</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923489</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923499</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>49.70416500698953</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>74.5141140770249</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104333</v>
+        <v>28.5809535810431</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>51.27141198553622</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>127.7079972339909</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.6407024873957</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>84.94186588374691</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>199.1044286421403</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184575</v>
+        <v>24.14662204184572</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615225</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495412189</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>6.557754744005369</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665118</v>
       </c>
       <c r="I13" t="n">
         <v>90.25352389927382</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905248</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.504487549138433e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>151.731911034516</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788561</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409392444</v>
       </c>
       <c r="E19" t="n">
-        <v>30.15030327141898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844822367</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>142.9753202488342</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409392367</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.52450498097812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393013</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194124</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E37" t="n">
-        <v>65.75554125013267</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>80.44045370237404</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>946250.165750101</v>
+        <v>946250.1657501011</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1041310.793905005</v>
+        <v>1041310.793905004</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1041310.793905004</v>
+        <v>1041310.793905005</v>
       </c>
     </row>
     <row r="9">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>389994.8406855343</v>
+      </c>
+      <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
-      <c r="C2" t="n">
-        <v>389994.8406855346</v>
-      </c>
       <c r="D2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
         <v>347979.8910303375</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
         <v>383394.6348527528</v>
@@ -26341,19 +26341,19 @@
         <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.6751706862</v>
+        <v>189098.6751706873</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.5150517699</v>
+        <v>237173.5150517688</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545759</v>
+        <v>313577.1573545756</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704302</v>
+        <v>189308.2687704304</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353576</v>
+        <v>62744.31078353584</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.08035203345</v>
+        <v>43966.08035203365</v>
       </c>
       <c r="L3" t="n">
-        <v>58197.58031572241</v>
+        <v>58197.58031572227</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273052</v>
+        <v>81897.40371273032</v>
       </c>
       <c r="N3" t="n">
         <v>49839.57413202397</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210476.9869351606</v>
+        <v>210476.9869351604</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
-        <v>12891.4455871839</v>
+        <v>12891.44558718399</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="G4" t="n">
+        <v>12996.86414683053</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.86414683052</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.86414683053</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12996.86414683045</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683043</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.8641468304</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911819</v>
+        <v>74737.94401911828</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738557</v>
+        <v>85137.48506738553</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-584460.1135349541</v>
+        <v>-584460.1135349544</v>
       </c>
       <c r="C6" t="n">
-        <v>-84318.76543943041</v>
+        <v>-84318.76543943146</v>
       </c>
       <c r="D6" t="n">
-        <v>-84067.54078889888</v>
+        <v>-84067.54078889756</v>
       </c>
       <c r="E6" t="n">
-        <v>-63626.19697880791</v>
+        <v>-63847.32829278227</v>
       </c>
       <c r="F6" t="n">
-        <v>79966.97211158524</v>
+        <v>79932.23418614917</v>
       </c>
       <c r="G6" t="n">
-        <v>269275.2408820153</v>
+        <v>269240.5029565795</v>
       </c>
       <c r="H6" t="n">
-        <v>269275.2408820153</v>
+        <v>269240.5029565795</v>
       </c>
       <c r="I6" t="n">
-        <v>269275.2408820151</v>
+        <v>269240.5029565798</v>
       </c>
       <c r="J6" t="n">
-        <v>206530.9300984794</v>
+        <v>206496.1921730437</v>
       </c>
       <c r="K6" t="n">
-        <v>225309.1605299818</v>
+        <v>225274.4226045459</v>
       </c>
       <c r="L6" t="n">
-        <v>211077.6605662929</v>
+        <v>211042.9226408573</v>
       </c>
       <c r="M6" t="n">
-        <v>187377.8371692849</v>
+        <v>187343.0992438493</v>
       </c>
       <c r="N6" t="n">
-        <v>219435.6667499913</v>
+        <v>219400.9288245557</v>
       </c>
       <c r="O6" t="n">
-        <v>269275.2408820155</v>
+        <v>269240.5029565795</v>
       </c>
       <c r="P6" t="n">
-        <v>269275.2408820153</v>
+        <v>269240.5029565796</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902864</v>
+        <v>740.5311575902873</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26790,13 +26790,13 @@
         <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6375786784532</v>
+        <v>410.6375786784542</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490077</v>
+        <v>969.2208239490072</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522218</v>
+        <v>147.0550572522227</v>
       </c>
       <c r="D3" t="n">
-        <v>193.5337345272529</v>
+        <v>193.533734527252</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974099</v>
+        <v>268.1763450974097</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267245</v>
+        <v>165.7342631267247</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369486</v>
+        <v>170.8296305369496</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9472534215855</v>
+        <v>229.9472534215846</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848969</v>
+        <v>328.6359918489684</v>
       </c>
       <c r="F4" t="n">
         <v>203.4874641506407</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415043</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369489</v>
+        <v>170.8296305369496</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215853</v>
+        <v>229.9472534215846</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489684</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506407</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369486</v>
+        <v>170.8296305369496</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215855</v>
+        <v>229.9472534215846</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848969</v>
+        <v>328.6359918489684</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506407</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>309.799991521982</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>125.464943629503</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>75.23293593371093</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863028</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>129.9231525369644</v>
+        <v>178.3012096430801</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>154.5081446353607</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.91222060387642</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941498</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>99.25984181716468</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>242.7453576250227</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232338</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>171.6857916233216</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>363.4988676495348</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.9865017432184</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020682</v>
+        <v>95.70472393020668</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1814615316176</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.0639896953817</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1074921335361</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>14.31812857063389</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7506765600919</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.85195735900766</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.261993899359183</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.7444632813738</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8365899360328</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>169.4940555531343</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>133.3472423903683</v>
+        <v>166.6555953037877</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3543942759101</v>
+        <v>150.35439427591</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.2918344467883</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.249668337144</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.2398575583235</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2461902262361</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>138.3594943221058</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>132.6152663046102</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>141.7677285910693</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>146.8343127959627</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>113.2285093633307</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,16 +28099,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.13460853191865e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.208274538623213e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.034861231922143e-12</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,16 +28378,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.496260799134949e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28861,10 +28861,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>6.890111377067639e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.895907565613612e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29232,13 +29232,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>6.87805368215777e-12</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.401634446869139e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.977009678754918</v>
+        <v>2.977009678754921</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48830037254881</v>
+        <v>30.48830037254885</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7711656401991</v>
+        <v>114.7711656401992</v>
       </c>
       <c r="J5" t="n">
-        <v>252.6699752222254</v>
+        <v>252.6699752222258</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239212</v>
+        <v>378.6867949239216</v>
       </c>
       <c r="L5" t="n">
-        <v>469.7944548801171</v>
+        <v>469.7944548801177</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546748</v>
+        <v>522.7368507546755</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1952795044373</v>
+        <v>531.195279504438</v>
       </c>
       <c r="O5" t="n">
-        <v>501.5926395113181</v>
+        <v>501.5926395113187</v>
       </c>
       <c r="P5" t="n">
-        <v>428.097713067056</v>
+        <v>428.0977130670565</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4835539466454</v>
+        <v>321.4835539466458</v>
       </c>
       <c r="R5" t="n">
-        <v>187.0045842330888</v>
+        <v>187.004584233089</v>
       </c>
       <c r="S5" t="n">
-        <v>67.83860805462776</v>
+        <v>67.83860805462784</v>
       </c>
       <c r="T5" t="n">
-        <v>13.03185986874966</v>
+        <v>13.03185986874968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381607743003934</v>
+        <v>0.2381607743003937</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.592840603118729</v>
+        <v>1.592840603118731</v>
       </c>
       <c r="H6" t="n">
-        <v>15.38348687748878</v>
+        <v>15.3834868774888</v>
       </c>
       <c r="I6" t="n">
-        <v>54.84122251965801</v>
+        <v>54.84122251965807</v>
       </c>
       <c r="J6" t="n">
-        <v>150.4885062797393</v>
+        <v>150.4885062797395</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886941</v>
+        <v>257.2088266886944</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8490090236522</v>
+        <v>345.8490090236526</v>
       </c>
       <c r="M6" t="n">
-        <v>403.589480886706</v>
+        <v>403.5894808867066</v>
       </c>
       <c r="N6" t="n">
-        <v>414.2712935277962</v>
+        <v>414.2712935277967</v>
       </c>
       <c r="O6" t="n">
-        <v>378.9772991113232</v>
+        <v>378.9772991113237</v>
       </c>
       <c r="P6" t="n">
-        <v>304.162693765716</v>
+        <v>304.1626937657164</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.3247057595066</v>
+        <v>203.3247057595068</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328395</v>
+        <v>98.89584025328406</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863076</v>
+        <v>29.5863155886308</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447858</v>
+        <v>6.420265413447866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047921449420217</v>
+        <v>0.1047921449420218</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335384054671008</v>
+        <v>1.33538405467101</v>
       </c>
       <c r="H7" t="n">
-        <v>11.87277823152952</v>
+        <v>11.87277823152953</v>
       </c>
       <c r="I7" t="n">
-        <v>40.15864048046996</v>
+        <v>40.15864048047001</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524027</v>
+        <v>94.41165266524038</v>
       </c>
       <c r="K7" t="n">
-        <v>155.1473474426862</v>
+        <v>155.1473474426864</v>
       </c>
       <c r="L7" t="n">
-        <v>198.5351893644516</v>
+        <v>198.5351893644518</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972017</v>
+        <v>209.327520497202</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297918</v>
+        <v>204.350179929792</v>
       </c>
       <c r="O7" t="n">
-        <v>188.7504662002258</v>
+        <v>188.7504662002261</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5086314849371</v>
+        <v>161.5086314849373</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8202047961332</v>
+        <v>111.8202047961334</v>
       </c>
       <c r="R7" t="n">
-        <v>60.0437230400255</v>
+        <v>60.04372304002557</v>
       </c>
       <c r="S7" t="n">
-        <v>23.27210211640292</v>
+        <v>23.27210211640295</v>
       </c>
       <c r="T7" t="n">
-        <v>5.705731869957942</v>
+        <v>5.705731869957949</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478235</v>
+        <v>0.07283913025478243</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869139</v>
+        <v>4.833130601869138</v>
       </c>
       <c r="H11" t="n">
         <v>49.49729877639233</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285601</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203912</v>
+        <v>410.2059184203911</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797512</v>
+        <v>614.7923367975119</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544648</v>
+        <v>762.7042574544647</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954551</v>
+        <v>848.655443795455</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180159</v>
+        <v>862.3875761180157</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956795</v>
+        <v>814.3281336956794</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620351</v>
+        <v>695.010221962035</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825963</v>
+        <v>521.9237322825962</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696625</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900931</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968216</v>
       </c>
       <c r="U11" t="n">
         <v>0.386650448149531</v>
@@ -31835,37 +31835,37 @@
         <v>24.97486041837093</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469202</v>
+        <v>89.03390294469199</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>244.3158348193134</v>
       </c>
       <c r="K12" t="n">
         <v>417.5746757598376</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747742</v>
+        <v>346.5700931427939</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0744558279873</v>
+        <v>655.2214742821471</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340498</v>
+        <v>672.5632370340497</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924467</v>
+        <v>615.2639659924466</v>
       </c>
       <c r="P12" t="n">
-        <v>493.803575338344</v>
+        <v>493.8035753383439</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605172</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627648</v>
+        <v>48.03293999627647</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868432</v>
@@ -31911,7 +31911,7 @@
         <v>2.167976001535154</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092165</v>
       </c>
       <c r="I13" t="n">
         <v>65.19695102798447</v>
@@ -31920,34 +31920,34 @@
         <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329023</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100538</v>
+        <v>322.3189048100537</v>
       </c>
       <c r="M13" t="n">
-        <v>339.840092677006</v>
+        <v>339.8400926770059</v>
       </c>
       <c r="N13" t="n">
         <v>331.7594548531025</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806235</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493061</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194573</v>
       </c>
       <c r="R13" t="n">
-        <v>97.480084578117</v>
+        <v>97.48008457811697</v>
       </c>
       <c r="S13" t="n">
         <v>37.78190904493535</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377474</v>
+        <v>9.263170188377472</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473722</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832324</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,16 +33980,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>250.1723312270667</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219186</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
         <v>138.6157555714078</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>89.75123316395907</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.02901441547814</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
@@ -34872,10 +34872,10 @@
         <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>66.22227459996923</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.62407069553916</v>
+        <v>71.62407069553947</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5969438789406</v>
+        <v>158.5969438789411</v>
       </c>
       <c r="L5" t="n">
-        <v>234.0280399101298</v>
+        <v>234.0280399101305</v>
       </c>
       <c r="M5" t="n">
-        <v>292.3906175274021</v>
+        <v>292.3906175274028</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7822159078464</v>
+        <v>301.782215907847</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896314</v>
+        <v>271.4944280896319</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8647173117864</v>
+        <v>196.8647173117869</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.17786407219589</v>
+        <v>99.17786407219629</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>74.92229159860878</v>
+        <v>23.65087961307276</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3673877143351</v>
+        <v>119.3673877143355</v>
       </c>
       <c r="L6" t="n">
-        <v>207.294629243778</v>
+        <v>207.2946292437784</v>
       </c>
       <c r="M6" t="n">
-        <v>261.4554469646877</v>
+        <v>261.4554469646882</v>
       </c>
       <c r="N6" t="n">
-        <v>282.9295814444629</v>
+        <v>410.6375786784542</v>
       </c>
       <c r="O6" t="n">
-        <v>236.3810546668788</v>
+        <v>236.3810546668793</v>
       </c>
       <c r="P6" t="n">
-        <v>170.1882863513857</v>
+        <v>303.8289888387818</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.4202194093342</v>
+        <v>63.34293167348531</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.052472548567494</v>
+        <v>1.052472548567607</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8778556168033</v>
+        <v>132.8778556168035</v>
       </c>
       <c r="L7" t="n">
-        <v>226.1252146247677</v>
+        <v>226.1252146247679</v>
       </c>
       <c r="M7" t="n">
-        <v>248.9113974590423</v>
+        <v>248.9113974590426</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090204</v>
+        <v>248.4823523090206</v>
       </c>
       <c r="O7" t="n">
-        <v>213.3355941142655</v>
+        <v>213.3355941142657</v>
       </c>
       <c r="P7" t="n">
-        <v>158.7871907498306</v>
+        <v>158.7871907498308</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.65816154443885</v>
+        <v>25.658161544439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>451.8731981657875</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937048</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525315</v>
+        <v>394.7024857525313</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844774</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681824</v>
+        <v>618.3092105681823</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214249</v>
+        <v>632.9745125214247</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739928</v>
+        <v>584.2299222739927</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067655</v>
+        <v>463.7772262067654</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081468</v>
+        <v>299.6180424081467</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553045</v>
+        <v>88.0136023555304</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>117.4782081526467</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854787</v>
+        <v>279.7332367854786</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949</v>
+        <v>208.0157133629197</v>
       </c>
       <c r="M12" t="n">
-        <v>122.9404219059689</v>
+        <v>513.0874403601288</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507166</v>
+        <v>541.2215249507165</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480023</v>
+        <v>472.6677215480022</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240138</v>
+        <v>359.8291679240137</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187321</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655328</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186262</v>
+        <v>59.91672319186259</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070195</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703699</v>
+        <v>349.9089300703698</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388465</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323311</v>
@@ -35583,10 +35583,10 @@
         <v>331.0186812946632</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141996</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776294</v>
+        <v>95.37638356776291</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>481.5356082478341</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999053</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060523</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572999008</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998991</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>110.1905571410452</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
